--- a/Misc/03 Traub_original_parameters.xlsx
+++ b/Misc/03 Traub_original_parameters.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>napf</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>mS/cm2</t>
+  </si>
+  <si>
+    <t>Cad</t>
+  </si>
+  <si>
+    <t>Calcium dynamics</t>
   </si>
 </sst>
 </file>
@@ -239,11 +245,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,12 +547,12 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="14" max="14" width="9.140625" style="7"/>
+    <col min="14" max="14" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -674,7 +680,7 @@
       <c r="M3" s="2">
         <v>0</v>
       </c>
-      <c r="N3" s="8"/>
+      <c r="N3" s="7"/>
       <c r="O3" s="2">
         <v>0</v>
       </c>
@@ -733,7 +739,7 @@
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="5">
@@ -780,7 +786,7 @@
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="5">
         <v>60</v>
       </c>
@@ -825,7 +831,7 @@
       <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="4">
         <v>10</v>
       </c>
@@ -870,7 +876,7 @@
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="4">
         <v>10</v>
       </c>
@@ -915,7 +921,7 @@
       <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="4">
         <v>10</v>
       </c>
@@ -960,7 +966,7 @@
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="4">
         <v>10</v>
       </c>
@@ -1005,7 +1011,7 @@
       <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
@@ -1050,7 +1056,7 @@
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="4">
         <v>10</v>
       </c>
@@ -1104,6 +1110,9 @@
       <c r="I15" t="s">
         <v>42</v>
       </c>
+      <c r="J15" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
@@ -1114,6 +1123,9 @@
       </c>
       <c r="G16" t="s">
         <v>40</v>
+      </c>
+      <c r="J16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7">
